--- a/ELABORAZIONE-DATI/recorded-data/rec.xlsx
+++ b/ELABORAZIONE-DATI/recorded-data/rec.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\tactile-sensors\ELABORAZIONE-DATI\recorded-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E9B14AC-BDC5-4FA3-AEBB-6C58DB730F8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AE951D-857D-4A45-B904-B8D4C8AECC70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11210" yWindow="0" windowWidth="10480" windowHeight="13770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26640" yWindow="4770" windowWidth="21600" windowHeight="11295" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="REC" sheetId="1" r:id="rId1"/>
+    <sheet name="REC - PRIMA" sheetId="1" r:id="rId1"/>
+    <sheet name="REC 30-31_01" sheetId="3" r:id="rId2"/>
+    <sheet name="REC 03_02" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="13">
   <si>
     <t>PRESSURE</t>
   </si>
@@ -193,15 +195,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -216,9 +215,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -229,6 +225,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -513,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -530,350 +529,268 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="I1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="M1" s="3" t="s">
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="E1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="I1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="M1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J2" s="5">
-        <v>1</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N2" s="5">
-        <v>1</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>5</v>
-      </c>
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="5"/>
+      <c r="I2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="M2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="5"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8">
-        <v>1</v>
-      </c>
-      <c r="C3" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="8">
-        <v>1</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J3" s="8">
-        <v>1</v>
-      </c>
-      <c r="K3" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="M3" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N3" s="8">
-        <v>1</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>5</v>
-      </c>
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="I3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="K3" s="7"/>
+      <c r="M3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="O3" s="7"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="8">
-        <v>1</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="8"/>
-      <c r="G4" s="9"/>
-      <c r="I4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" s="8"/>
-      <c r="K4" s="9"/>
-      <c r="M4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N4" s="8">
-        <v>1</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="I4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="M4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" s="7"/>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="9"/>
-      <c r="I5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J5" s="8"/>
-      <c r="K5" s="9"/>
-      <c r="M5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N5" s="8">
-        <v>1</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="I5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="M5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O5" s="7"/>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="11">
-        <v>1</v>
-      </c>
-      <c r="C6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="12"/>
-      <c r="I6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="11"/>
-      <c r="K6" s="12"/>
-      <c r="M6" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="11">
-        <v>1</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="I6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
+      <c r="M6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="10"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="5">
-        <v>2</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
-      <c r="I7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" s="5">
-        <v>2</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="N7" s="5">
-        <v>2</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>7</v>
-      </c>
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="I7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="M7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5"/>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="8">
-        <v>2</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9"/>
-      <c r="I8" s="7" t="s">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="I8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J8" s="8">
-        <v>2</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="7" t="s">
+      <c r="K8" s="7"/>
+      <c r="M8" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="8">
-        <v>2</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="O8" s="7"/>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="8">
-        <v>2</v>
-      </c>
-      <c r="C9" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9"/>
-      <c r="I9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J9" s="8"/>
-      <c r="K9" s="9"/>
-      <c r="M9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="N9" s="8">
-        <v>2</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>12</v>
-      </c>
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="I9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="M9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="7"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="8">
-        <v>2</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="8"/>
-      <c r="G10" s="9"/>
-      <c r="I10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="J10" s="8"/>
-      <c r="K10" s="9"/>
-      <c r="M10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N10" s="8">
-        <v>2</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="I10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="M10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="O10" s="7"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="11">
-        <v>2</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="12"/>
-      <c r="I11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="11"/>
-      <c r="K11" s="12"/>
-      <c r="M11" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="N11" s="11">
-        <v>2</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>7</v>
-      </c>
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="I11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
+      <c r="M11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="10"/>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="F14" s="2"/>
@@ -887,4 +804,714 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2FD8ADE-04FE-44E1-8DAE-3B1C1034058E}">
+  <dimension ref="A1:O14"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection sqref="A1:O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="2" width="8.7265625" style="1"/>
+    <col min="3" max="3" width="8.7265625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="2.26953125" style="1" customWidth="1"/>
+    <col min="5" max="7" width="8.7265625" style="1"/>
+    <col min="8" max="8" width="2.26953125" style="1" customWidth="1"/>
+    <col min="9" max="11" width="8.7265625" style="1"/>
+    <col min="12" max="12" width="2.26953125" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="E1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="I1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="M1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1">
+        <v>1</v>
+      </c>
+      <c r="O3" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="I4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="7"/>
+      <c r="M4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="I5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="M5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="1">
+        <v>1</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="I6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
+      <c r="M6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="9">
+        <v>1</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
+      <c r="I7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2</v>
+      </c>
+      <c r="K7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="4">
+        <v>2</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G8" s="7"/>
+      <c r="I8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="1">
+        <v>2</v>
+      </c>
+      <c r="O8" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="7"/>
+      <c r="I9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="K9" s="7"/>
+      <c r="M9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="1">
+        <v>2</v>
+      </c>
+      <c r="O9" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="7"/>
+      <c r="I10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K10" s="7"/>
+      <c r="M10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="1">
+        <v>2</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9">
+        <v>2</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="I11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
+      <c r="M11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="9">
+        <v>2</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="F14" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64466458-5484-4595-94A9-9023A3592882}">
+  <dimension ref="A1:O11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="2.26953125" customWidth="1"/>
+    <col min="8" max="8" width="2.26953125" customWidth="1"/>
+    <col min="12" max="12" width="2.26953125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="4">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1"/>
+      <c r="I2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N2" s="4"/>
+      <c r="O2" s="5"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="1">
+        <v>1</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="I3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N3" s="1"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" s="1"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="1"/>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="9"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="9"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J6" s="9"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N6" s="9"/>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="4">
+        <v>2</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4">
+        <v>2</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H7" s="1"/>
+      <c r="I7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="4"/>
+      <c r="O7" s="5"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="1"/>
+      <c r="I8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="J8" s="1"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" s="1"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="1"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="N9" s="1"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1"/>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="1"/>
+      <c r="K10" s="7"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="N10" s="1"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="9"/>
+      <c r="C11" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="J11" s="9"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="N11" s="9"/>
+      <c r="O11" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>